--- a/BCTC.xlsx
+++ b/BCTC.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyke.duong\Desktop\Code\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256AC6E-CBC5-4AC7-AABE-55EBB0656E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1533491-298A-44AA-B384-9AFC439192EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BCTC" sheetId="1" r:id="rId1"/>
     <sheet name="KQKD" sheetId="2" r:id="rId2"/>
     <sheet name="LCTT" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -36,7 +36,7 @@
     <t>C001</t>
   </si>
   <si>
-    <t xml:space="preserve">TÀI SẢN NGẮN HẠN_x000D__x000D__x000D_
+    <t xml:space="preserve">TÀI SẢN NGẮN HẠN_x000D__x000D__x000D__x000D__x000D_
 </t>
   </si>
   <si>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:N122"/>
+      <selection activeCell="D1" sqref="D1:BE145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -3295,7 +3295,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M1 A2:C121" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C121" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3305,7 +3305,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N27"/>
+      <selection activeCell="D1" sqref="D1:BC114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -3587,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -4045,7 +4045,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A38:C43 A1:C37" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>